--- a/data/trans_bre/P28B_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,47 +641,47 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>116,62%</t>
+          <t>79,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>40,05%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 8,97</t>
+          <t>-5,87; 9,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 11,54</t>
+          <t>-3,77; 12,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 16,83</t>
+          <t>-0,83; 15,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 8,64</t>
+          <t>-7,7; 7,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 14,79</t>
+          <t>-4,46; 15,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 70,65</t>
+          <t>-28,99; 79,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 150,65</t>
+          <t>-25,85; 160,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,84; 313,82</t>
+          <t>-14,61; 229,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 200,45</t>
+          <t>-53,55; 152,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 156,2</t>
+          <t>-30,47; 166,28</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -781,27 +781,27 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>199,1%</t>
+          <t>199,33%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 14,34</t>
+          <t>-2,14; 13,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 8,53</t>
+          <t>-6,19; 8,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 10,27</t>
+          <t>-1,83; 9,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 8,8</t>
+          <t>-2,3; 8,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 23,87</t>
+          <t>6,39; 24,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 111,16</t>
+          <t>-10,46; 106,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,86; 89,44</t>
+          <t>-39,55; 98,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 172,57</t>
+          <t>-17,46; 166,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 218,42</t>
+          <t>-24,16; 221,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,28; 667,39</t>
+          <t>46,52; 637,45</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,27 +901,27 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>52,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>71,18%</t>
         </is>
       </c>
     </row>
@@ -934,52 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 9,96</t>
+          <t>-6,67; 9,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 6,25</t>
+          <t>-5,33; 7,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 6,07</t>
+          <t>-2,07; 6,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 7,26</t>
+          <t>-0,87; 7,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 12,22</t>
+          <t>0,37; 12,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 45,5</t>
+          <t>-21,12; 41,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 74,11</t>
+          <t>-34,66; 77,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 162,56</t>
+          <t>-25,17; 146,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 181,42</t>
+          <t>-13,75; 180,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 196,22</t>
+          <t>1,3; 188,51</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1001,47 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,44%</t>
+          <t>73,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>140,4%</t>
+          <t>152,52%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>-1,59%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 16,21</t>
+          <t>4,83; 16,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 6,07</t>
+          <t>-3,22; 5,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 6,63</t>
+          <t>-0,1; 7,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,28</t>
+          <t>-0,06; 7,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 5,96</t>
+          <t>-7,98; 6,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,8; 178,67</t>
+          <t>31,02; 175,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 113,84</t>
+          <t>-34,81; 116,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 226,15</t>
+          <t>-4,8; 238,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 543,3</t>
+          <t>-32,19; 582,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 81,39</t>
+          <t>-50,29; 90,62</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>10,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>121,05%</t>
+          <t>121,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>66,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>337,23%</t>
+          <t>306,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>106,61%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-9,63%</t>
+          <t>-9,57%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 17,26</t>
+          <t>4,17; 17,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 8,22</t>
+          <t>-1,35; 8,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,73</t>
+          <t>2,22; 8,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,53</t>
+          <t>-0,34; 6,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 4,2</t>
+          <t>-6,96; 4,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,96; 259,79</t>
+          <t>31,06; 262,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 300,12</t>
+          <t>-20,82; 290,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>75,92; 1175,73</t>
+          <t>61,55; 1177,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 487,08</t>
+          <t>-19,56; 534,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-59,73; 75,7</t>
+          <t>-56,48; 75,32</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,15%</t>
+          <t>-6,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,8%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>637,61%</t>
+          <t>848,6%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>594,86%</t>
+          <t>594,14%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,98</t>
+          <t>-4,93; 3,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 6,43</t>
+          <t>-1,42; 9,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 3,66</t>
+          <t>-6,45; 4,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 11,31</t>
+          <t>3,63; 15,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 13,38</t>
+          <t>2,62; 13,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 81,98</t>
+          <t>-50,12; 73,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,65; 297,42</t>
+          <t>-39,63; 470,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,48; 133,58</t>
+          <t>-69,79; 184,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>39,63; —</t>
+          <t>58,87; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,75; —</t>
+          <t>26,31; —</t>
         </is>
       </c>
     </row>
@@ -1356,22 +1356,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1381,27 +1381,27 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>58,01%</t>
         </is>
       </c>
     </row>
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,15</t>
+          <t>1,68; 7,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,94</t>
+          <t>-0,78; 4,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,57</t>
+          <t>1,31; 5,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,43</t>
+          <t>1,31; 5,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,89</t>
+          <t>1,67; 7,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,7; 51,89</t>
+          <t>10,61; 54,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 50,39</t>
+          <t>-8,32; 54,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,33; 112,47</t>
+          <t>18,5; 107,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,8; 145,76</t>
+          <t>20,81; 149,17</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,4; 109,46</t>
+          <t>14,85; 105,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
